--- a/opinion.xlsx
+++ b/opinion.xlsx
@@ -412,10 +412,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="B2" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
